--- a/Financials/Quarterly/IVV_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IVV_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36972585-C0A8-4529-97BD-926A351E741B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IVV" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,7 +750,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +779,7 @@
         <v>275300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,7 +808,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,7 +837,7 @@
         <v>262600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,7 +976,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -970,7 +1005,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>262600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +1047,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>-4156800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1424,7 @@
         <v>4156800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1453,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1476,12 +1511,12 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,7 +1571,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1774,7 @@
         <v>24625200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1768,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1942,7 +1977,7 @@
         <v>24659900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +2003,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>784200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2142,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>784200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2416,7 +2451,7 @@
         <v>-1661100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2532,7 +2567,7 @@
         <v>23875700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,7 +2672,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2840,7 +2875,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,7 +2888,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2969,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>-258200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3127,7 +3162,7 @@
         <v>744500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3156,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>

--- a/Financials/Quarterly/IVV_QTR_FIN.xlsx
+++ b/Financials/Quarterly/IVV_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36972585-C0A8-4529-97BD-926A351E741B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IVV" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,39 +654,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -750,7 +715,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +744,7 @@
         <v>275300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,7 +773,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,7 +802,7 @@
         <v>262600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,7 +815,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -966,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,7 +941,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +970,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,7 +999,7 @@
         <v>262600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1012,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1041,7 @@
         <v>-4156800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1128,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1215,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +1244,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1337,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1389,7 @@
         <v>4156800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1418,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1482,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1511,12 +1476,12 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1545,7 +1510,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1558,7 +1523,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1571,7 +1536,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1600,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1658,7 +1623,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1687,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1716,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1745,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1774,7 +1739,7 @@
         <v>24625200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1803,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1832,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1919,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1948,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1942,7 @@
         <v>24659900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1990,7 +1955,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +1968,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2032,7 +1997,7 @@
         <v>784200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2061,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2090,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2119,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2148,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2177,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2264,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2293,7 +2258,7 @@
         <v>784200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2306,7 +2271,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2335,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2393,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2422,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2451,7 +2416,7 @@
         <v>-1661100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2480,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2509,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2538,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2567,7 +2532,7 @@
         <v>23875700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2596,12 +2561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2595,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2659,7 +2624,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2672,7 +2637,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2701,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2730,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2759,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2788,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2817,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2846,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2875,7 +2840,7 @@
         <v>-3894200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2888,7 +2853,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2917,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2946,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2975,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3004,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3017,7 +2982,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3046,7 +3011,7 @@
         <v>-258200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3075,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3104,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3133,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3162,7 +3127,7 @@
         <v>744500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3191,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
